--- a/excel-files/descriptions/products-list.xlsx
+++ b/excel-files/descriptions/products-list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\paola\24-agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffe\Documents\SILABUZ\SUMON-LICORES\12-SET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B949C61-27ED-49D8-A04A-D6F240D910FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EED4979-125D-49F8-9921-DCF520B324DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5F647A5-6337-4DD7-B3A0-94035B8F3410}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F74F5EA-86D9-417D-81A6-DB6A321C2EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Mesa de Centro Moderna Montego 1 Cajón</t>
+    <t>Vino Catena Cabernet 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Evan Williams Black Label 750ml</t>
+  </si>
+  <si>
+    <t>Ron Capitan Morgan 700ml + Chopp Edición Limitada</t>
+  </si>
+  <si>
+    <t>Espumante Freixenet Mia Moscato 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Jack Daniels Honey 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Chivas Regal Xv 750ml Dorada</t>
+  </si>
+  <si>
+    <t>Espumante Mavam Bronze 750ml + Estuche</t>
+  </si>
+  <si>
+    <t>Espumante Mavam Gold 750ml + Estuche</t>
+  </si>
+  <si>
+    <t>Anis Najar Verde Seco 750ml</t>
+  </si>
+  <si>
+    <t>Ron Abuelo Añejo 1 Lt</t>
+  </si>
+  <si>
+    <t>Licor Jagermeister 1Lt</t>
+  </si>
+  <si>
+    <t>Anis Najar Rojo Crema 750ml</t>
+  </si>
+  <si>
+    <t>Licor Cachaza 51 965ml</t>
+  </si>
+  <si>
+    <t>Licor Tres Plumas Cacao 700ml</t>
+  </si>
+  <si>
+    <t>Aguardiente Antioqueño Rojo 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Johnnie Walker Red Label 750ml Sestuche + Vaso</t>
+  </si>
+  <si>
+    <t>Vino Trumpeter Merlot 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Ballantines Finest Con Caja 700ml</t>
+  </si>
+  <si>
+    <t>Crema de Coco Bar Baileys 240 ml</t>
+  </si>
+  <si>
+    <t>Vino Casillero Del Diablo Merlot 750ml</t>
+  </si>
+  <si>
+    <t>Licor Tres Plumas Café 700ml</t>
+  </si>
+  <si>
+    <t>Licor Tres Plumas Durazno 700ml</t>
+  </si>
+  <si>
+    <t>Ron Capitan Morgan 700ml</t>
+  </si>
+  <si>
+    <t>Vino Tabernero Tuyo Rosé 750ml</t>
+  </si>
+  <si>
+    <t>Ron Barceló Dorado 1Lt</t>
+  </si>
+  <si>
+    <t>Vino Santiago Queirolo Borgoña Semi Seco 750ml</t>
+  </si>
+  <si>
+    <t>Vodka Smirnoff Raspberry 750ml</t>
+  </si>
+  <si>
+    <t>Tequila Jimador Blanco 750ml</t>
+  </si>
+  <si>
+    <t>Tequila Tres Caballos Gold 750ml + Shot</t>
+  </si>
+  <si>
+    <t>Vino Tabernero Gran Selección Rosé 750ml</t>
+  </si>
+  <si>
+    <t>Vino Concha y Toro Reservado Carmenere 750ml</t>
+  </si>
+  <si>
+    <t>Pisco La Botija Tabernero Italia 700ml</t>
+  </si>
+  <si>
+    <t>Pisco Huamaní Mosto Verde Acholado 700ml</t>
+  </si>
+  <si>
+    <t>Vino Tacama Triunfo Selección Especial Petit Verdot-Tannat 750ml</t>
+  </si>
+  <si>
+    <t>Ron Cartavio Superior 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Johnnie Walker Black Label 750ml</t>
+  </si>
+  <si>
+    <t>Gin Beefeater London Pink 700ml</t>
+  </si>
+  <si>
+    <t>Espumante Tabernero Especial Semi Seco 750ml</t>
+  </si>
+  <si>
+    <t>Vino Santiago Queirolo Magdalena Semi Sco 750ml</t>
+  </si>
+  <si>
+    <t>Pisco La Caravedo Acholado 750ml</t>
+  </si>
+  <si>
+    <t>Ron Bacardí Carta Blanca 750ml</t>
+  </si>
+  <si>
+    <t>Gin Beefeater London Dry 700ml</t>
+  </si>
+  <si>
+    <t>Whisky Something Special 750ml + Vaso Pavonado</t>
+  </si>
+  <si>
+    <t>Vino Santiago Queirolo Moscato Semi Seco 750ml</t>
+  </si>
+  <si>
+    <t>Espumante Roi De Paris Brut 750 ml</t>
+  </si>
+  <si>
+    <t>Whisky Chivas Regal 18 Años 700ml</t>
+  </si>
+  <si>
+    <t>Tequila Don Julio Reposado 750ml</t>
+  </si>
+  <si>
+    <t>Vino Trapiche Reserva Malbec 750ml</t>
+  </si>
+  <si>
+    <t>Gin Antagonic Clásico 750ml</t>
+  </si>
+  <si>
+    <t>Vino Ayra Borgona 750ml + Vino Ayra Rosé Semi Seco 750ml + Sacacorcho</t>
+  </si>
+  <si>
+    <t>Martini Vermouth Rosso 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Grants Triple Wood 1Lt</t>
+  </si>
+  <si>
+    <t>Pisco Ayra Italia 750ml + Jarabe De Goma Chunpi Espumante + Gaseosa Evervess Ginger Ale Botella 1.5L</t>
+  </si>
+  <si>
+    <t>Ron Barceló Gran Añejo 1Lt</t>
+  </si>
+  <si>
+    <t>Vino Casillero Del Diablo Dark Red 750ml</t>
+  </si>
+  <si>
+    <t>Ron Bacardí Carta Oro 750ml</t>
+  </si>
+  <si>
+    <t>Pisco La Botija Tabernero Acholado 700ml</t>
+  </si>
+  <si>
+    <t>Vino Trapiche Vineyard Malbec 750ml</t>
+  </si>
+  <si>
+    <t>Crema Baileys Original 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Jack Daniels 750ml</t>
+  </si>
+  <si>
+    <t>Espumante Santiago Queirolo Primadonna 750ml</t>
+  </si>
+  <si>
+    <t>Vino Tacama Rose Semi Seco 750ml</t>
+  </si>
+  <si>
+    <t>Vino Tabernero Borgoña 750ml</t>
+  </si>
+  <si>
+    <t>Whisky Johnnie Walker Black Label 1Lt</t>
+  </si>
+  <si>
+    <t>Vodka Russkaya Apple 750ml</t>
+  </si>
+  <si>
+    <t>Tequila José Cuervo Especial Reposado 750ml</t>
+  </si>
+  <si>
+    <t>Vino Finca Rotondo Gran Reserva Blend Isabel 750ml + Vino Finca Rotondo Reserva Malbec 375ml</t>
+  </si>
+  <si>
+    <t>Pisco La Botija Tabernero Quebranta 700ml</t>
+  </si>
+  <si>
+    <t>Vino Casillero Del Diablo Red Blend 750ml</t>
+  </si>
+  <si>
+    <t>Vino Trumpeter Cabernet Sauvignon 750ml</t>
+  </si>
+  <si>
+    <t>Vino Concha y Toro Reservado Sauvignon Blanc 750ml</t>
+  </si>
+  <si>
+    <t>Vino Finca Las Moras Varietal Malbec 750ml</t>
+  </si>
+  <si>
+    <t>Vino Tacama De La Viña Tinto Semi Dulce 750ml</t>
+  </si>
+  <si>
+    <t>Vino Trumpeter Chardonnay 750ml</t>
+  </si>
+  <si>
+    <t>Vino Tabernero Tuyo Borgoña 750ml</t>
+  </si>
+  <si>
+    <t>Agua Gin Mr Perkins Pink Soda 200ml X4</t>
+  </si>
+  <si>
+    <t>Whisky Chivas Regal 12 Años 1Lt</t>
+  </si>
+  <si>
+    <t>Licor Drambuie Liqueur 750ml</t>
+  </si>
+  <si>
+    <t>Ron Flor De Caña 07 Años 1Lt</t>
+  </si>
+  <si>
+    <t>Ron Flor De Caña 12 Años 750ml</t>
+  </si>
+  <si>
+    <t>Jarabe De Goma Espumante Chunpi 750ml Pet</t>
+  </si>
+  <si>
+    <t>Pack Evan Whisky Williams Fire 750ml + Miniaturas</t>
+  </si>
+  <si>
+    <t>Whisky Jack Daniels Single Barrel 750ml</t>
+  </si>
+  <si>
+    <t>Jarabe De Goma Espumante Chunpi 750ml Vidrio</t>
+  </si>
+  <si>
+    <t>Pisco Santiago Queirolo Puro Italia 750 ml</t>
+  </si>
+  <si>
+    <t>Vino Marques De Casa Concha Chardonnay 750ml</t>
+  </si>
+  <si>
+    <t>Vino Finca Rotondo Reserva Malbec 750ml + Reserva Malbec 375ml</t>
+  </si>
+  <si>
+    <t>Licor Amaro Di Angostura 750 ml</t>
+  </si>
+  <si>
+    <t>Whisky Chivas Regal Ultis 700ml</t>
+  </si>
+  <si>
+    <t>Vino Taso Real Tempranillo Semi Dulce 750ml</t>
+  </si>
+  <si>
+    <t>Vino Intipalka Reserva Malbec Merlot 750ml</t>
+  </si>
+  <si>
+    <t>Champagne Moet Chandon Brut Imperial 750ml</t>
+  </si>
+  <si>
+    <t>Pisco La Botija Tabernero Italia De 700ml + Evervess 15L</t>
+  </si>
+  <si>
+    <t>Whisky Johnnie Walker Gold Label Reserve 750ml</t>
+  </si>
+  <si>
+    <t>Vino Santiago Queirolo Sauvignon Blanc 750ml</t>
+  </si>
+  <si>
+    <t>Vino Intipalka Reserva Cabernetsyrah 750ml</t>
+  </si>
+  <si>
+    <t>Ron Santa Teresa Gran Reserva Añejo 750ml</t>
+  </si>
+  <si>
+    <t>Licor Tres Plumas Amaretto 700ml</t>
   </si>
 </sst>
 </file>
@@ -413,11 +704,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D5CBA-3019-4DF3-A170-EDFB1714A495}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BC0520-1F86-4C4E-A2BD-275AF70A5682}">
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A2" sqref="A2:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
@@ -432,6 +723,491 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
